--- a/database_tables/cd.ods.xlsx
+++ b/database_tables/cd.ods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axela\Documents\database\lab3_database\database_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDA654A-BE85-4CF3-9BC6-23364C141280}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D29666-0D1F-4BDC-9BA3-7D8227AA1A77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>S004</t>
+  </si>
+  <si>
+    <t>G1</t>
   </si>
 </sst>
 </file>
@@ -533,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,6 +570,9 @@
       <c r="C2" s="2">
         <v>58.5</v>
       </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -576,6 +582,9 @@
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -585,6 +594,9 @@
         <v>6</v>
       </c>
       <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -596,6 +608,9 @@
       <c r="C5" s="2">
         <v>51.42</v>
       </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -607,6 +622,9 @@
       <c r="C6" s="2">
         <v>53.48</v>
       </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -618,6 +636,9 @@
       <c r="C7" s="2">
         <v>148.06</v>
       </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -629,6 +650,9 @@
       <c r="C8" s="2">
         <v>122.15</v>
       </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -640,6 +664,9 @@
       <c r="C9" s="2">
         <v>55.24</v>
       </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -651,6 +678,9 @@
       <c r="C10" s="2">
         <v>65.459999999999994</v>
       </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -660,6 +690,9 @@
         <v>13</v>
       </c>
       <c r="C11" s="2"/>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -671,6 +704,9 @@
       <c r="C12" s="2">
         <v>46.11</v>
       </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -682,6 +718,9 @@
       <c r="C13" s="2">
         <v>55.11</v>
       </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -693,6 +732,9 @@
       <c r="C14" s="2">
         <v>63.18</v>
       </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -704,6 +746,9 @@
       <c r="C15" s="2">
         <v>56.11</v>
       </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -715,8 +760,11 @@
       <c r="C16" s="2">
         <v>63.16</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -726,8 +774,11 @@
       <c r="C17" s="2">
         <v>61.55</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
@@ -737,8 +788,11 @@
       <c r="C18" s="2">
         <v>57.12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -748,8 +802,11 @@
       <c r="C19" s="2">
         <v>138.44999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
@@ -759,8 +816,11 @@
       <c r="C20" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>47</v>
       </c>
@@ -770,8 +830,11 @@
       <c r="C21" s="2">
         <v>76.12</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
@@ -781,8 +844,11 @@
       <c r="C22" s="2">
         <v>106.39</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
@@ -792,8 +858,11 @@
       <c r="C23" s="2">
         <v>51.28</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
@@ -803,8 +872,11 @@
       <c r="C24" s="2">
         <v>50.49</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -813,6 +885,9 @@
       </c>
       <c r="C25" s="2">
         <v>50.04</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
